--- a/POS/public/template_stok.xlsx
+++ b/POS/public/template_stok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_2025\POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32F987-1922-4CB3-80E0-6BEEF91FAB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8AA742-29EC-428C-A4B2-FDE8A2F078D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F2D712E3-E34E-428F-BEDD-B90DE20A702D}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,9 +448,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
